--- a/機械設計/_BOM/CU001.xlsx
+++ b/機械設計/_BOM/CU001.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GitHub\2022-KawasakiRobot\機械設計\_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F0216B9-C339-4321-BD99-D6AC805E30BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3864D54E-42B8-4A55-88E9-C3ADF10950BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17970" yWindow="-2220" windowWidth="14400" windowHeight="10845" xr2:uid="{97D22395-2F2C-4B2E-92A9-308E5D08291E}"/>
+    <workbookView xWindow="42120" yWindow="6870" windowWidth="14400" windowHeight="10845" xr2:uid="{44D41FA0-1A5D-44E7-A880-4ED4DD3AF7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="DESKTOP-1 - 個人用ビュー" guid="{EDEFD6EB-A2C5-48F7-B098-32FB9807808E}" mergeInterval="0" personalView="1" xWindow="-1198" yWindow="-148" windowWidth="960" windowHeight="723" activeSheetId="1"/>
+    <customWorkbookView name="DESKTOP-1 - 個人用ビュー" guid="{64DC38D3-CDF4-4F4C-8D60-0E0A0420CC77}" mergeInterval="0" personalView="1" xWindow="2808" yWindow="458" windowWidth="960" windowHeight="723" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>種類</t>
   </si>
@@ -116,15 +116,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>CU-P002</t>
-  </si>
-  <si>
-    <t>足駆動回路放熱板</t>
-  </si>
-  <si>
-    <t>A2017</t>
-  </si>
-  <si>
     <t>組立品</t>
   </si>
   <si>
@@ -149,12 +140,6 @@
     <t>腕機構</t>
   </si>
   <si>
-    <t>CU-SAS003</t>
-  </si>
-  <si>
-    <t>展開機構</t>
-  </si>
-  <si>
     <t>自社製品</t>
   </si>
   <si>
@@ -164,15 +149,6 @@
     <t>未指定</t>
   </si>
   <si>
-    <t>右足駆動回路v2</t>
-  </si>
-  <si>
-    <t>左足駆動回路v2</t>
-  </si>
-  <si>
-    <t>電子回路ユニット</t>
-  </si>
-  <si>
     <t>購入品</t>
   </si>
   <si>
@@ -185,19 +161,22 @@
     <t>バッテリー</t>
   </si>
   <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>小型ファン</t>
-  </si>
-  <si>
-    <t>ABS</t>
-  </si>
-  <si>
     <t>MISUMI</t>
   </si>
   <si>
-    <t>CBSTBR3-6</t>
+    <t>MBIS2-3-2</t>
+  </si>
+  <si>
+    <t>黄銅</t>
+  </si>
+  <si>
+    <t>ﾈｼﾞｲﾝｻｰﾄ</t>
+  </si>
+  <si>
+    <t>1日目</t>
+  </si>
+  <si>
+    <t>CBSTBR2-5</t>
   </si>
   <si>
     <t>SCM435</t>
@@ -206,19 +185,7 @@
     <t>超極低頭ﾎﾞﾙﾄ</t>
   </si>
   <si>
-    <t>1日目</t>
-  </si>
-  <si>
     <t>CBSTBR3-10</t>
-  </si>
-  <si>
-    <t>ボルト類</t>
-  </si>
-  <si>
-    <t>六角穴付きボルト M2x5</t>
-  </si>
-  <si>
-    <t>スチール</t>
   </si>
 </sst>
 </file>
@@ -302,8 +269,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D857BBC8-5958-479F-A04D-0E337A56F6B9}">
-  <header guid="{D857BBC8-5958-479F-A04D-0E337A56F6B9}" dateTime="2023-07-13T15:13:52" maxSheetId="2" userName="DESKTOP-1" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{73BF2C11-A13F-447C-86C8-18F39424A4E2}">
+  <header guid="{73BF2C11-A13F-447C-86C8-18F39424A4E2}" dateTime="2023-07-16T16:29:31" maxSheetId="2" userName="DESKTOP-1" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -615,8 +582,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6F7527-9A80-4A8A-A874-1B30D6DCF348}">
-  <dimension ref="A1:S15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8F7ACF-86FE-4A71-84DE-E5E6C6AE23D7}">
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -749,21 +716,21 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -771,46 +738,40 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="3"/>
       <c r="N3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -819,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -837,73 +798,71 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="3"/>
       <c r="N5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Q5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="3"/>
       <c r="N6" s="1" t="s">
@@ -919,366 +878,130 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="3"/>
+      <c r="K7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="3">
+        <v>64</v>
+      </c>
       <c r="N7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="3"/>
+      <c r="K8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="3">
+        <v>260</v>
+      </c>
       <c r="N8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="3"/>
+      <c r="K9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="3">
+        <v>280</v>
+      </c>
       <c r="N9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="1">
-        <v>4</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="3">
-        <v>280</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="3">
-        <v>280</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="1">
-        <v>4</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{EDEFD6EB-A2C5-48F7-B098-32FB9807808E}">
+    <customSheetView guid="{64DC38D3-CDF4-4F4C-8D60-0E0A0420CC77}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
